--- a/Lamella/SLD_SasView.xlsx
+++ b/Lamella/SLD_SasView.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreashlarsen/Seafile/PostDocSund/Teaching/2023/sastutorials-beta-main/Lamella/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreashlarsen/Seafile/PostDocSund/prj_SAS_Tutorials/sastutorials-beta-main/Lamella/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A70B6F3-8944-6142-9BA6-481ACF6A8BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A21FF765-E40B-804F-AC4F-983251337295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11560" yWindow="4640" windowWidth="28040" windowHeight="17440" xr2:uid="{01F6B0D7-2015-EC42-BFFB-5B3C6F16CE7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>water</t>
   </si>
@@ -63,9 +62,6 @@
     <t>Mass density, g/cm**3</t>
   </si>
   <si>
-    <t>SLD, E-6 Å**-2</t>
-  </si>
-  <si>
     <t>Molar mass, g/mol</t>
   </si>
   <si>
@@ -87,30 +83,9 @@
     <t>2) Use SLD Calculator to get SLD from chemical formula and mass density</t>
   </si>
   <si>
-    <t>dSLD, E-6 Å**-2</t>
-  </si>
-  <si>
     <t>d-spacing</t>
   </si>
   <si>
-    <t>2pi/d</t>
-  </si>
-  <si>
-    <t>q=</t>
-  </si>
-  <si>
-    <t xml:space="preserve">so </t>
-  </si>
-  <si>
-    <t>d=</t>
-  </si>
-  <si>
-    <t>2pi/q</t>
-  </si>
-  <si>
-    <t>=</t>
-  </si>
-  <si>
     <t>fit sample 2</t>
   </si>
   <si>
@@ -123,9 +98,6 @@
     <t>chi2r</t>
   </si>
   <si>
-    <t>model 1</t>
-  </si>
-  <si>
     <t>sld_head</t>
   </si>
   <si>
@@ -141,13 +113,31 @@
     <t>1) Use Density/volume Calculator to get molecular volume (for water) or mass density (for head and tail)</t>
   </si>
   <si>
-    <t>Water</t>
-  </si>
-  <si>
-    <t>Chemical formula</t>
-  </si>
-  <si>
-    <t>Compound</t>
+    <t>SLD, E-6 Å^-2</t>
+  </si>
+  <si>
+    <t>dSLD, E-6 Å^-2</t>
+  </si>
+  <si>
+    <t>d =</t>
+  </si>
+  <si>
+    <t>2pi/q_first_peak =</t>
+  </si>
+  <si>
+    <t>Å</t>
+  </si>
+  <si>
+    <t>q_first_peak =</t>
+  </si>
+  <si>
+    <t>SASVIEW MODELLING:</t>
+  </si>
+  <si>
+    <t>SASVIEW fit sample 2</t>
+  </si>
+  <si>
+    <t>SASVIEW fit sample 1</t>
   </si>
 </sst>
 </file>
@@ -174,21 +164,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -196,26 +180,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -223,11 +192,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -545,13 +509,13 @@
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
@@ -571,28 +535,28 @@
         <v>6</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L1" s="6">
         <v>6.0221407599999999E+23</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -622,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L2" s="5">
         <f>(100000000)^3</f>
         <v>9.9999999999999998E+23</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>2</v>
@@ -662,7 +626,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>3</v>
@@ -693,223 +657,96 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="4">
+        <f>2*PI()/C16</f>
+        <v>62.831853071795862</v>
+      </c>
+      <c r="E17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" t="s">
-        <v>23</v>
-      </c>
-      <c r="H17">
-        <f>2*PI()/0.1</f>
-        <v>62.831853071795862</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>25</v>
       </c>
       <c r="B24">
         <v>14.122</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B25">
         <v>7.22</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B26">
         <v>14.3</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B27">
         <v>7.39</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B29">
         <v>4.95</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407B7B09-EB78-9345-900D-1375ABCFB446}">
-  <dimension ref="A1:M10"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="123" zoomScaleNormal="123" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:H29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13.83203125" customWidth="1"/>
-    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="6">
-        <v>6.0221407599999999E+23</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="9">
-        <v>30</v>
-      </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="K2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="5">
-        <f>(100000000)^3</f>
-        <v>9.9999999999999998E+23</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="8">
-        <v>325</v>
-      </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="8"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="8">
-        <v>969</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
